--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM042RBC.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM042RBC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65079D7-7561-4F47-B465-23607ABB01C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113B064E-C71F-4F2C-BFC4-C010E074F53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -182,10 +182,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>對象關係人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>LoanAmount</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -223,6 +219,44 @@
   </si>
   <si>
     <t xml:space="preserve">YearMonth = ,AND LoanType = ,AND LoanItem = ,AND RelatedCode = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:一般放款
+2:專案放款</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A：非授信限制對象-銀行保證放款
+B：非授信限制對象-動產擔保放款
+C： 非授信限制對象-不動產擔保放款
+D：非授信限制對象-有價證券質押放款
+E： 授信限制對象-非具控制與從屬關係
+F：授信限制對象-具控制與從屬關係</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否為利害關係人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y/N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>風險量金額</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskFactorAmount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款金額*風險係數=LoanAmount * RiskFactor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/9/8新增</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,18 +524,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -534,6 +562,18 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -842,41 +882,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.90625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.7265625" style="5" customWidth="1"/>
     <col min="4" max="4" width="17.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="41.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
@@ -887,13 +927,13 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="26" t="s">
-        <v>50</v>
+      <c r="B3" s="32"/>
+      <c r="C3" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>12</v>
@@ -902,51 +942,51 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="17"/>
       <c r="D4" s="18"/>
       <c r="E4" s="12"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
       <c r="E5" s="12"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="12"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="10"/>
       <c r="D7" s="18"/>
       <c r="E7" s="12"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
         <v>0</v>
       </c>
@@ -969,165 +1009,174 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="19">
         <v>1</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="22">
         <v>6</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="31" x14ac:dyDescent="0.4">
       <c r="A10" s="19">
         <v>2</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="26">
         <v>1</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F10" s="22"/>
+      <c r="G10" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="93" x14ac:dyDescent="0.4">
       <c r="A11" s="19">
         <v>3</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="26">
         <v>1</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="30"/>
-    </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F11" s="22"/>
+      <c r="G11" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19">
         <v>4</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="26">
         <v>1</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="22"/>
+      <c r="G12" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="19">
         <v>5</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="22">
         <v>16</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="22">
         <v>2</v>
       </c>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19">
         <v>6</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="27">
         <v>6</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="26">
         <v>4</v>
       </c>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="19">
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" s="7" customFormat="1" ht="31" x14ac:dyDescent="0.4">
+      <c r="A15" s="33">
         <v>7</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="35">
+        <v>16</v>
+      </c>
+      <c r="F15" s="35">
+        <v>2</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19">
         <v>8</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="28">
-        <v>6</v>
-      </c>
-      <c r="F16" s="28" t="s">
+      <c r="B16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="26" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1135,39 +1184,62 @@
       <c r="A17" s="19">
         <v>9</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28" t="s">
+      <c r="B17" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="26">
+        <v>6</v>
+      </c>
+      <c r="F17" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G17" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="19">
         <v>10</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="19">
+        <v>11</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C19" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D19" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E19" s="26">
         <v>6</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="19"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1214,19 +1286,19 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="26" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="24" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM042RBC.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM042RBC.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113B064E-C71F-4F2C-BFC4-C010E074F53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74296000-2C1D-40F0-926C-1845F41CBF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="SP" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -104,10 +104,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -124,9 +120,6 @@
   </si>
   <si>
     <t>最後更新日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
@@ -258,6 +251,41 @@
   <si>
     <t>2023/9/8新增</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanBal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款餘額</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款餘額扣除備呆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>備呆金額</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>備呆提存比率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReserveLossRate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReserveLossAmt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/9/11新增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -463,7 +491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,6 +579,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -562,18 +599,6 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -882,41 +907,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.453125" style="3"/>
+    <col min="7" max="7" width="41.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
@@ -927,13 +952,13 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>12</v>
@@ -942,51 +967,51 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="17"/>
       <c r="D4" s="18"/>
       <c r="E4" s="12"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
       <c r="E5" s="12"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="12"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="10"/>
       <c r="D7" s="18"/>
       <c r="E7" s="12"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>0</v>
       </c>
@@ -1009,15 +1034,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>1</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>13</v>
@@ -1028,78 +1053,78 @@
       <c r="F9" s="10"/>
       <c r="G9" s="20"/>
     </row>
-    <row r="10" spans="1:8" ht="31" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>2</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="26">
         <v>1</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="93" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>3</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="26">
         <v>1</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>4</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="26">
         <v>1</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>5</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>13</v>
@@ -1110,20 +1135,22 @@
       <c r="F13" s="22">
         <v>2</v>
       </c>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="G13" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>6</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" s="27">
         <v>6</v>
@@ -1133,113 +1160,185 @@
       </c>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" ht="31" x14ac:dyDescent="0.4">
-      <c r="A15" s="33">
+    <row r="15" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
         <v>7</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="30">
+        <v>16</v>
+      </c>
+      <c r="F15" s="30">
+        <v>2</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="35">
-        <v>16</v>
-      </c>
-      <c r="F15" s="35">
-        <v>2</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>8</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="30">
+        <v>16</v>
+      </c>
+      <c r="F16" s="30">
+        <v>2</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>9</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="26">
+      <c r="B17" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="30">
         <v>6</v>
       </c>
-      <c r="F17" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F17" s="30">
+        <v>4</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>10</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="30">
+        <v>16</v>
+      </c>
+      <c r="F18" s="30">
+        <v>2</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>11</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D19" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
+        <v>12</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="26">
+        <v>6</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
+        <v>13</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="26">
+      <c r="C21" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
+        <v>14</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="26">
         <v>6</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="19"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1266,15 +1365,15 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1285,20 +1384,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B3" s="24" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1316,22 +1415,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.1796875" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
